--- a/Mission/VMware vxRail Plan/Result IO Meter/deuxième test/vSphere client/VM/tableau.xlsx
+++ b/Mission/VMware vxRail Plan/Result IO Meter/deuxième test/vSphere client/VM/tableau.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nexisoffice-my.sharepoint.com/personal/vdh_nexis_be/Documents/Documents/GitHub/Stage_Henallux/Mission/VMware vxRail Plan/Result IO Meter/deuxième test/vSphere client/VM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="192" documentId="11_AD4DB114E441178AC67DF4967E53CA72693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAD6A649-45EC-4AC2-ADF8-D3F95371FD4E}"/>
+  <xr:revisionPtr revIDLastSave="196" documentId="11_AD4DB114E441178AC67DF4967E53CA72693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE7B97AB-3979-4E3D-A964-9725611591B6}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Débit" sheetId="1" r:id="rId1"/>
     <sheet name="IOps" sheetId="2" r:id="rId2"/>
     <sheet name="Latence" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -107,10 +104,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3215,7 +3212,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Latence!$A$6</c15:sqref>
@@ -3638,7 +3635,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-B524-4A12-B38F-D971DC551B33}"/>
                   </c:ext>
@@ -3651,7 +3648,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Latence!$A$8</c15:sqref>
@@ -4074,7 +4071,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-B524-4A12-B38F-D971DC551B33}"/>
                   </c:ext>
@@ -4087,7 +4084,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Latence!$A$10</c15:sqref>
@@ -4513,7 +4510,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-B524-4A12-B38F-D971DC551B33}"/>
                   </c:ext>
@@ -4526,7 +4523,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Latence!$A$12</c15:sqref>
@@ -4946,7 +4943,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-B524-4A12-B38F-D971DC551B33}"/>
                   </c:ext>
@@ -4959,7 +4956,7 @@
                 <c:order val="11"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Latence!$A$14</c15:sqref>
@@ -5379,7 +5376,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-B524-4A12-B38F-D971DC551B33}"/>
                   </c:ext>
@@ -9503,14 +9500,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>10243</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>84646</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9537,16 +9534,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>125982</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>10244</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>240282</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>84647</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9576,20 +9573,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Latence"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9857,14 +9842,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:BI14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="AL1" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="8" bestFit="1" customWidth="1"/>
@@ -9888,7 +9873,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="1">
@@ -10070,191 +10055,191 @@
       </c>
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>5930295</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>1907652</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3">
         <v>839547</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>745738</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>237428</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>73399855</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>143377903</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>143724592</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <v>142556926</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="3">
         <v>143396648</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="3">
         <v>142975480</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="3">
         <v>142926783</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="3">
         <v>143975066</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="3">
         <v>150470467</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="3">
         <v>144838439</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3" s="3">
         <v>143000734</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="3">
         <v>143378364</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U3" s="3">
         <v>77476978</v>
       </c>
-      <c r="V3" s="4">
+      <c r="V3" s="3">
         <v>27915951</v>
       </c>
-      <c r="W3" s="4">
+      <c r="W3" s="3">
         <v>35694</v>
       </c>
-      <c r="X3" s="4">
+      <c r="X3" s="3">
         <v>523</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="Y3" s="3">
         <v>7329957</v>
       </c>
-      <c r="Z3" s="4">
+      <c r="Z3" s="3">
         <v>145104926</v>
       </c>
-      <c r="AA3" s="4">
+      <c r="AA3" s="3">
         <v>142997262</v>
       </c>
-      <c r="AB3" s="4">
+      <c r="AB3" s="3">
         <v>143329052</v>
       </c>
-      <c r="AC3" s="4">
+      <c r="AC3" s="3">
         <v>143924214</v>
       </c>
-      <c r="AD3" s="4">
+      <c r="AD3" s="3">
         <v>143159772</v>
       </c>
-      <c r="AE3" s="4">
+      <c r="AE3" s="3">
         <v>142641390</v>
       </c>
-      <c r="AF3" s="4">
+      <c r="AF3" s="3">
         <v>142862373</v>
       </c>
-      <c r="AG3" s="4">
+      <c r="AG3" s="3">
         <v>141921136</v>
       </c>
-      <c r="AH3" s="4">
+      <c r="AH3" s="3">
         <v>142502661</v>
       </c>
-      <c r="AI3" s="4">
+      <c r="AI3" s="3">
         <v>142112785</v>
       </c>
-      <c r="AJ3" s="4">
+      <c r="AJ3" s="3">
         <v>142241186</v>
       </c>
-      <c r="AK3" s="4">
+      <c r="AK3" s="3">
         <v>135768743</v>
       </c>
-      <c r="AL3" s="4">
+      <c r="AL3" s="3">
         <v>498</v>
       </c>
-      <c r="AM3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="4">
+      <c r="AM3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="3">
         <v>41985262</v>
       </c>
-      <c r="AP3" s="4">
+      <c r="AP3" s="3">
         <v>143425352</v>
       </c>
-      <c r="AQ3" s="4">
+      <c r="AQ3" s="3">
         <v>143878763</v>
       </c>
-      <c r="AR3" s="4">
+      <c r="AR3" s="3">
         <v>142663706</v>
       </c>
-      <c r="AS3" s="4">
+      <c r="AS3" s="3">
         <v>146083072</v>
       </c>
-      <c r="AT3" s="4">
+      <c r="AT3" s="3">
         <v>167854142</v>
       </c>
-      <c r="AU3" s="4">
+      <c r="AU3" s="3">
         <v>153851602</v>
       </c>
-      <c r="AV3" s="4">
+      <c r="AV3" s="3">
         <v>176646354</v>
       </c>
-      <c r="AW3" s="4">
+      <c r="AW3" s="3">
         <v>176547089</v>
       </c>
-      <c r="AX3" s="4">
+      <c r="AX3" s="3">
         <v>175872975</v>
       </c>
-      <c r="AY3" s="4">
+      <c r="AY3" s="3">
         <v>165658873</v>
       </c>
-      <c r="AZ3" s="4">
+      <c r="AZ3" s="3">
         <v>142890910</v>
       </c>
-      <c r="BA3" s="4">
+      <c r="BA3" s="3">
         <v>103412983</v>
       </c>
-      <c r="BB3" s="4">
+      <c r="BB3" s="3">
         <v>2866</v>
       </c>
-      <c r="BC3" s="4">
+      <c r="BC3" s="3">
         <v>319</v>
       </c>
-      <c r="BD3" s="4">
+      <c r="BD3" s="3">
         <v>3</v>
       </c>
-      <c r="BE3" s="4">
-        <v>0</v>
-      </c>
-      <c r="BF3" s="4">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="4">
-        <v>0</v>
-      </c>
-      <c r="BH3" s="4">
-        <v>0</v>
-      </c>
-      <c r="BI3" s="4">
+      <c r="BE3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4">
@@ -10433,10 +10418,10 @@
       </c>
     </row>
     <row r="5" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F5">
@@ -10609,8 +10594,8 @@
       </c>
     </row>
     <row r="6" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F6">
@@ -10783,10 +10768,10 @@
       </c>
     </row>
     <row r="7" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F7">
@@ -10959,8 +10944,8 @@
       </c>
     </row>
     <row r="8" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F8">
@@ -11133,10 +11118,10 @@
       </c>
     </row>
     <row r="9" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F9">
@@ -11309,8 +11294,8 @@
       </c>
     </row>
     <row r="10" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F10">
@@ -11483,10 +11468,10 @@
       </c>
     </row>
     <row r="11" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G11">
@@ -11656,8 +11641,8 @@
       </c>
     </row>
     <row r="12" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G12">
@@ -11827,10 +11812,10 @@
       </c>
     </row>
     <row r="13" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G13">
@@ -12000,8 +11985,8 @@
       </c>
     </row>
     <row r="14" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G14">
@@ -12172,12 +12157,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12187,19 +12172,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0B2AA2-DF58-4C4C-98C4-4C27D09BDFC5}">
   <dimension ref="A2:BI14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="AI1" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="61" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="1">
@@ -12381,10 +12366,10 @@
       </c>
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3">
@@ -12563,8 +12548,8 @@
       </c>
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4">
@@ -12743,10 +12728,10 @@
       </c>
     </row>
     <row r="5" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F5">
@@ -12919,8 +12904,8 @@
       </c>
     </row>
     <row r="6" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F6">
@@ -13093,10 +13078,10 @@
       </c>
     </row>
     <row r="7" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F7">
@@ -13269,8 +13254,8 @@
       </c>
     </row>
     <row r="8" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F8">
@@ -13443,10 +13428,10 @@
       </c>
     </row>
     <row r="9" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F9">
@@ -13619,8 +13604,8 @@
       </c>
     </row>
     <row r="10" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F10">
@@ -13793,10 +13778,10 @@
       </c>
     </row>
     <row r="11" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G11">
@@ -13966,8 +13951,8 @@
       </c>
     </row>
     <row r="12" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G12">
@@ -14137,10 +14122,10 @@
       </c>
     </row>
     <row r="13" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G13">
@@ -14310,8 +14295,8 @@
       </c>
     </row>
     <row r="14" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G14">
@@ -14482,12 +14467,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14497,19 +14482,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D2B629-8DDD-423E-83F4-DE02309F3793}">
   <dimension ref="A2:BI14"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U37" sqref="U37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH20" sqref="AH20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="61" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1">
@@ -14691,10 +14676,10 @@
       </c>
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3">
@@ -14873,8 +14858,8 @@
       </c>
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4">
@@ -15053,10 +15038,10 @@
       </c>
     </row>
     <row r="5" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F5">
@@ -15229,8 +15214,8 @@
       </c>
     </row>
     <row r="6" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F6">
@@ -15403,10 +15388,10 @@
       </c>
     </row>
     <row r="7" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F7">
@@ -15579,8 +15564,8 @@
       </c>
     </row>
     <row r="8" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F8">
@@ -15753,10 +15738,10 @@
       </c>
     </row>
     <row r="9" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F9">
@@ -15929,8 +15914,8 @@
       </c>
     </row>
     <row r="10" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F10">
@@ -16103,10 +16088,10 @@
       </c>
     </row>
     <row r="11" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G11">
@@ -16276,8 +16261,8 @@
       </c>
     </row>
     <row r="12" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G12">
@@ -16447,10 +16432,10 @@
       </c>
     </row>
     <row r="13" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G13">
@@ -16620,8 +16605,8 @@
       </c>
     </row>
     <row r="14" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G14">
@@ -16792,12 +16777,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
